--- a/out/summaryResults.xlsx
+++ b/out/summaryResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\2D_feature_tracking_systems_comparison\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D97AC24-B8C6-48E8-B83B-39652CB8C541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5073E1C-BF1B-41D0-B648-210031DE408A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16354" yWindow="-9463" windowWidth="33120" windowHeight="18120" xr2:uid="{62ECF92A-8746-45C6-ACC3-95BD635A580A}"/>
   </bookViews>
@@ -423,7 +423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3B3B3F8-405D-47C4-932C-9DD06541816C}" type="CELLRANGE">
+                    <a:fld id="{661E6C0E-5B87-4270-B4E1-46EBA4464BBE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -461,7 +461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD69AEB4-6547-445F-9A1B-8BD424182FA0}" type="CELLRANGE">
+                    <a:fld id="{66C0C097-1FCF-4470-975C-99C0CF52A101}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -493,7 +493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20804894-35C2-4A20-B902-DF817FF384F4}" type="CELLRANGE">
+                    <a:fld id="{549233FC-FF4B-48BD-8E68-F7A82D524357}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -532,7 +532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A46D9F3-6E21-4EFB-8F12-638261506934}" type="CELLRANGE">
+                    <a:fld id="{9B15BF9A-2E86-4399-94CB-E3C834021CA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -570,7 +570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F63F19BC-E8EB-4FA7-9A67-77CAE0B6753C}" type="CELLRANGE">
+                    <a:fld id="{EE4366CC-BFDA-4260-AED6-92FD1DD2A478}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -602,7 +602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FBC0760-D62D-477E-AABD-D25E2EE9FD54}" type="CELLRANGE">
+                    <a:fld id="{D81BCE1C-1BAA-4D99-82D9-7D8E21A90CC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -641,7 +641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FACEE85E-801A-43FC-9ED8-F8ACDFB7917F}" type="CELLRANGE">
+                    <a:fld id="{43B322E4-FDAB-4022-8FDD-B6F4838B5DEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -679,7 +679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C37B909-A949-4245-BD05-DB0F410B4618}" type="CELLRANGE">
+                    <a:fld id="{BA8DCC29-4798-412D-B9A1-E07D96768D89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -717,7 +717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FEF4D5C-2E81-48CF-BD67-59BCC5305736}" type="CELLRANGE">
+                    <a:fld id="{02DC71CE-28F3-41C2-87B4-B62D79814F4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -749,7 +749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20428821-0E8E-4477-A9BF-13ED4AC3AC9E}" type="CELLRANGE">
+                    <a:fld id="{0C037D64-41E3-4D0C-AB9B-E3B3B0FD9B2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -788,7 +788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D103E87A-3D05-4D8C-BD00-87966FF24EB3}" type="CELLRANGE">
+                    <a:fld id="{0D02B638-2068-4618-B46F-576066151708}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -820,7 +820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{055CB02B-A6ED-4BB2-BE6C-2668033D3533}" type="CELLRANGE">
+                    <a:fld id="{8CD99372-A382-4D1D-9ABF-52B0D51A8772}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -859,7 +859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{615C759E-23FF-422C-B2EA-850AD7E79137}" type="CELLRANGE">
+                    <a:fld id="{B2860F94-046B-4F23-9414-EC6A4502936E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -897,7 +897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20F9788C-79EB-425C-B486-3151C8DC9347}" type="CELLRANGE">
+                    <a:fld id="{D6F7633D-C033-429E-A69F-A18F3D29CF9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -935,7 +935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{786D0F7B-5283-49D5-AE22-1F917A84CA00}" type="CELLRANGE">
+                    <a:fld id="{D788C052-8FE8-4F82-A692-CA8A4B5F1B26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -967,7 +967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B5DC7CF-7BA9-4FE1-8106-FEE68413D3FD}" type="CELLRANGE">
+                    <a:fld id="{1A8A38F6-750F-4A63-A8FB-E062781F56DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1006,7 +1006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6349DF9F-04C4-4250-A1FF-3DDFD9257587}" type="CELLRANGE">
+                    <a:fld id="{54B76659-8E45-4E1F-BBD9-472D4513A1BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1044,7 +1044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{182C97EE-E186-40E3-9373-A40F6A8C36E1}" type="CELLRANGE">
+                    <a:fld id="{E50E82A5-48EF-45FE-A1EA-C6E652A554D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1076,7 +1076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1DBF705-A51A-400D-93EF-52CB858F84DD}" type="CELLRANGE">
+                    <a:fld id="{F3F41757-50CA-4D67-8C17-1AD625085E2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1109,7 +1109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D6726AC-B6C6-4D9C-B726-90F7AE0DF3E4}" type="CELLRANGE">
+                    <a:fld id="{3C21210C-1772-4517-9D81-118F1412B47F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1148,7 +1148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C447FBF2-7784-4182-897A-B7F8C200B897}" type="CELLRANGE">
+                    <a:fld id="{2AE5AF4C-1E91-4FA6-B75C-C46F4361A4F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1186,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F36B92A0-3547-4419-98F7-D9B4A8F98C8C}" type="CELLRANGE">
+                    <a:fld id="{555C1C8E-E101-42EA-8194-6C892AD2C1CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1224,7 +1224,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43EBA97D-BE26-405D-963A-CFB2C6AFFF31}" type="CELLRANGE">
+                    <a:fld id="{8C2A71CE-9B1E-4469-970C-BD61E98A8D34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1262,7 +1262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{040A1802-B7AF-49CF-AF58-60F1A8F70120}" type="CELLRANGE">
+                    <a:fld id="{C4137325-B05E-48DC-9AF7-069FCE9D56AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1300,7 +1300,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9EAB8DF-7BCA-4F35-BD4F-EBA63BE531E3}" type="CELLRANGE">
+                    <a:fld id="{AF08F3A4-AF9B-43FA-BE30-D275E48FE586}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1332,7 +1332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74894E42-206A-4F0B-AFEC-AB7C5EB9BE89}" type="CELLRANGE">
+                    <a:fld id="{B45E5D71-6C52-4D15-BC40-B9967BE64556}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1365,7 +1365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D08E423E-AA9E-407E-996B-1CEFAD1230CE}" type="CELLRANGE">
+                    <a:fld id="{A801B78E-DDCE-4D08-9EE5-2A84A3A83394}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1398,7 +1398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{779416FC-6277-4BEE-96DD-1905237B2495}" type="CELLRANGE">
+                    <a:fld id="{81D9F5E1-B66D-4665-A3B1-555C66DB0F08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1431,7 +1431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C77E19B0-413F-41F3-9D29-D35901C6C7FE}" type="CELLRANGE">
+                    <a:fld id="{3106C9C3-CBB9-4AF8-B910-0E10107F2B8E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1464,7 +1464,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2C364AC-B1B1-4A71-B270-B63F4F50269F}" type="CELLRANGE">
+                    <a:fld id="{2853404F-FA5A-4487-A946-5EA5D3908EFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1497,7 +1497,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76B0C40C-FE9E-4C86-B628-3B860C8EF500}" type="CELLRANGE">
+                    <a:fld id="{41B1249C-BB8E-48D2-938D-9C2717F331EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1536,7 +1536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23976E3F-E052-43B4-A0F8-A9331860CBD7}" type="CELLRANGE">
+                    <a:fld id="{CDC498F2-17E1-47B4-86FE-FAA522E0B774}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1574,7 +1574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B84BB536-2A9A-46C8-ACBD-7D881095DB11}" type="CELLRANGE">
+                    <a:fld id="{344B0EB7-7A6C-4C42-8EBA-AC3581D01746}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1606,7 +1606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17A91C00-B3BC-46B0-8761-34F590B2CBF1}" type="CELLRANGE">
+                    <a:fld id="{F5B5F67F-F193-49C3-935D-A197816E9394}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1639,7 +1639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E48F1182-04B2-4DCC-B9E0-E6FA8656B03A}" type="CELLRANGE">
+                    <a:fld id="{395A12C9-EB04-44C3-B831-6EDDB54456AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3269,7 +3269,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
